--- a/Design/Excel/Game/Datas/Entity.xlsx
+++ b/Design/Excel/Game/Datas/Entity.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>##var</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Id</t>
   </si>
   <si>
+    <t>CSName</t>
+  </si>
+  <si>
     <t>Desc</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
     <t>实体编号</t>
   </si>
   <si>
+    <t>代码名（程序填）</t>
+  </si>
+  <si>
     <t>策划备注</t>
   </si>
   <si>
@@ -64,10 +70,10 @@
     <t>加载优先级</t>
   </si>
   <si>
+    <t>PlayerShip</t>
+  </si>
+  <si>
     <t>飞船</t>
-  </si>
-  <si>
-    <t>PlayerShip</t>
   </si>
   <si>
     <t>Aircraft</t>
@@ -83,19 +89,13 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -554,10 +554,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -566,33 +566,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -602,107 +605,119 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1054,544 +1069,755 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="29.7583333333333" customWidth="1"/>
-    <col min="5" max="5" width="20.75" customWidth="1"/>
-    <col min="6" max="6" width="23.125" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="21.375" customWidth="1"/>
+    <col min="3" max="3" width="20.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="29.7583333333333" customWidth="1"/>
+    <col min="6" max="6" width="20.75" customWidth="1"/>
+    <col min="7" max="7" width="23.125" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="9" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" ht="16.5" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4">
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2">
         <v>1000</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="5:5">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" customFormat="1" spans="5:5">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" customFormat="1" spans="1:8">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" customFormat="1" spans="5:5">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" customFormat="1" spans="1:8">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" customFormat="1" spans="5:5">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" customFormat="1" spans="1:8">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" customFormat="1" spans="5:5">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" customFormat="1" spans="1:8">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" customFormat="1" spans="5:5">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" customFormat="1" spans="1:8">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="5:5">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="5:5">
+      <c r="F11" s="3"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="5:5">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="5:5">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="5:5">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="5:5">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="5:5">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="5:5">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="5:5">
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="3:5">
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="41" spans="5:5">
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="4:4">
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="4:4">
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="4:4">
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="5:5">
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="5:5">
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="5:7">
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="4:7">
-      <c r="D48" s="2"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="4:7">
-      <c r="D49" s="2"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="4:7">
-      <c r="D50" s="2"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="53" spans="5:7">
-      <c r="E53" s="2"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="55" spans="5:7">
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="5:7">
-      <c r="E56" s="2"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="5:7">
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="5:7">
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-    </row>
-    <row r="59" spans="5:7">
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-    </row>
-    <row r="60" spans="5:7">
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="5:7">
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="4:7">
-      <c r="D62" s="2"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-    </row>
-    <row r="63" spans="4:7">
-      <c r="D63" s="2"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-    </row>
-    <row r="64" spans="4:7">
-      <c r="D64" s="2"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="4:7">
-      <c r="D65" s="2"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-    </row>
-    <row r="66" spans="4:7">
-      <c r="D66" s="2"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-    </row>
-    <row r="67" spans="4:7">
-      <c r="D67" s="2"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-    </row>
-    <row r="68" spans="4:7">
-      <c r="D68" s="2"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-    </row>
-    <row r="69" spans="4:7">
-      <c r="D69" s="2"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-    </row>
-    <row r="70" spans="4:7">
-      <c r="D70" s="2"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-    </row>
-    <row r="71" spans="4:7">
-      <c r="D71" s="2"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-    </row>
-    <row r="72" spans="4:7">
-      <c r="D72" s="2"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-    </row>
-    <row r="73" spans="4:7">
-      <c r="D73" s="2"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-    </row>
-    <row r="74" spans="4:7">
-      <c r="D74" s="2"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-    </row>
-    <row r="75" spans="2:5">
-      <c r="B75" s="4"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="2:5">
-      <c r="B76" s="4"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="2:5">
-      <c r="B77" s="4"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="2:5">
-      <c r="B78" s="4"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="2:5">
-      <c r="B79" s="4"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="2:5">
-      <c r="B80" s="4"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="2:5">
-      <c r="B81" s="4"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="2:5">
-      <c r="B82" s="4"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="2:5">
-      <c r="B83" s="4"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="2:5">
-      <c r="B84" s="4"/>
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="2:5">
-      <c r="B85" s="4"/>
-      <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="2:5">
-      <c r="B86" s="4"/>
-      <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="2:5">
-      <c r="B87" s="4"/>
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="2:5">
-      <c r="B88" s="4"/>
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="2:5">
-      <c r="B89" s="4"/>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="2:5">
-      <c r="B90" s="4"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="2:5">
-      <c r="B91" s="4"/>
-      <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="2:5">
-      <c r="B92" s="4"/>
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="2:5">
-      <c r="B93" s="4"/>
-      <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="2:5">
-      <c r="B94" s="4"/>
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="2:5">
-      <c r="B95" s="4"/>
-      <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="2:5">
-      <c r="B96" s="4"/>
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="2:5">
-      <c r="B97" s="4"/>
-      <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="2:5">
-      <c r="B98" s="4"/>
-      <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="2:5">
-      <c r="B99" s="4"/>
-      <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="2:5">
-      <c r="B100" s="4"/>
-      <c r="E100" s="2"/>
-    </row>
-    <row r="101" spans="2:5">
-      <c r="B101" s="4"/>
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="2:5">
-      <c r="B102" s="4"/>
-      <c r="E102" s="2"/>
-    </row>
-    <row r="103" spans="2:5">
-      <c r="B103" s="4"/>
-      <c r="E103" s="2"/>
-    </row>
-    <row r="104" spans="2:5">
-      <c r="B104" s="4"/>
-      <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="2:5">
-      <c r="B105" s="4"/>
-      <c r="E105" s="2"/>
-    </row>
-    <row r="106" spans="2:5">
-      <c r="B106" s="4"/>
-      <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="2:5">
-      <c r="B107" s="4"/>
-      <c r="E107" s="2"/>
-    </row>
-    <row r="108" spans="2:5">
-      <c r="B108" s="4"/>
-      <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="2:5">
-      <c r="B109" s="4"/>
-      <c r="E109" s="2"/>
-    </row>
-    <row r="110" spans="2:5">
-      <c r="B110" s="4"/>
-      <c r="E110" s="2"/>
-    </row>
-    <row r="111" spans="2:5">
-      <c r="B111" s="4"/>
-      <c r="E111" s="2"/>
-    </row>
-    <row r="112" spans="2:5">
-      <c r="B112" s="4"/>
-      <c r="E112" s="2"/>
-    </row>
-    <row r="113" spans="2:5">
-      <c r="B113" s="4"/>
-      <c r="E113" s="2"/>
-    </row>
-    <row r="114" spans="2:5">
-      <c r="B114" s="4"/>
-      <c r="E114" s="2"/>
-    </row>
-    <row r="115" spans="2:5">
-      <c r="B115" s="4"/>
-      <c r="E115" s="2"/>
-    </row>
-    <row r="116" spans="2:5">
-      <c r="B116" s="4"/>
-      <c r="E116" s="2"/>
-    </row>
-    <row r="117" spans="2:5">
-      <c r="B117" s="4"/>
-      <c r="E117" s="2"/>
-    </row>
-    <row r="118" spans="2:5">
-      <c r="B118" s="4"/>
-      <c r="E118" s="2"/>
-    </row>
-    <row r="119" spans="2:5">
-      <c r="B119" s="4"/>
-      <c r="E119" s="2"/>
-    </row>
-    <row r="120" spans="2:5">
-      <c r="B120" s="4"/>
-      <c r="E120" s="2"/>
-    </row>
-    <row r="121" spans="2:5">
-      <c r="B121" s="4"/>
-      <c r="E121" s="2"/>
-    </row>
-    <row r="122" spans="2:5">
-      <c r="B122" s="4"/>
-      <c r="E122" s="2"/>
-    </row>
-    <row r="123" spans="2:5">
-      <c r="B123" s="4"/>
-      <c r="E123" s="2"/>
-    </row>
-    <row r="124" spans="2:5">
-      <c r="B124" s="4"/>
-      <c r="E124" s="2"/>
-    </row>
-    <row r="125" spans="2:5">
-      <c r="B125" s="4"/>
-      <c r="E125" s="2"/>
-    </row>
-    <row r="126" spans="2:5">
-      <c r="B126" s="4"/>
-      <c r="E126" s="2"/>
-    </row>
-    <row r="127" spans="2:5">
-      <c r="B127" s="4"/>
-      <c r="E127" s="2"/>
-    </row>
-    <row r="128" spans="2:5">
-      <c r="B128" s="4"/>
-      <c r="E128" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="6"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="7"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="4:6">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="5:5">
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="5:5">
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" spans="5:5">
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="6:6">
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="6:8">
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="5:8">
+      <c r="E48" s="8"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="5:8">
+      <c r="E49" s="8"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="5:8">
+      <c r="E50" s="8"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="53" spans="6:8">
+      <c r="F53" s="8"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="55" spans="6:8">
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="6:8">
+      <c r="F56" s="8"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="6:8">
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="6:8">
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="6:8">
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="6:8">
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="6:8">
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="5:8">
+      <c r="E62" s="8"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="5:8">
+      <c r="E63" s="8"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="5:8">
+      <c r="E64" s="8"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="5:8">
+      <c r="E65" s="8"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="5:8">
+      <c r="E66" s="8"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="5:8">
+      <c r="E67" s="8"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="5:8">
+      <c r="E68" s="8"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="5:8">
+      <c r="E69" s="8"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="5:8">
+      <c r="E70" s="8"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="5:8">
+      <c r="E71" s="8"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="5:8">
+      <c r="E72" s="8"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="5:8">
+      <c r="E73" s="8"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="5:8">
+      <c r="E74" s="8"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" s="9"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" s="9"/>
+      <c r="C76" s="1"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="9"/>
+      <c r="C77" s="1"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78" s="9"/>
+      <c r="C78" s="1"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79" s="9"/>
+      <c r="C79" s="1"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80" s="9"/>
+      <c r="C80" s="6"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="B81" s="9"/>
+      <c r="C81" s="1"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" s="9"/>
+      <c r="C82" s="1"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="B83" s="9"/>
+      <c r="C83" s="1"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="B84" s="9"/>
+      <c r="C84" s="1"/>
+      <c r="F84" s="8"/>
+    </row>
+    <row r="85" spans="2:6">
+      <c r="B85" s="9"/>
+      <c r="C85" s="1"/>
+      <c r="F85" s="8"/>
+    </row>
+    <row r="86" spans="2:6">
+      <c r="B86" s="9"/>
+      <c r="C86" s="1"/>
+      <c r="F86" s="8"/>
+    </row>
+    <row r="87" spans="2:6">
+      <c r="B87" s="9"/>
+      <c r="C87" s="1"/>
+      <c r="F87" s="8"/>
+    </row>
+    <row r="88" spans="2:6">
+      <c r="B88" s="9"/>
+      <c r="C88" s="1"/>
+      <c r="F88" s="8"/>
+    </row>
+    <row r="89" spans="2:6">
+      <c r="B89" s="9"/>
+      <c r="C89" s="1"/>
+      <c r="F89" s="8"/>
+    </row>
+    <row r="90" spans="2:6">
+      <c r="B90" s="9"/>
+      <c r="C90" s="1"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+    </row>
+    <row r="91" spans="2:6">
+      <c r="B91" s="9"/>
+      <c r="C91" s="1"/>
+      <c r="F91" s="8"/>
+    </row>
+    <row r="92" spans="2:6">
+      <c r="B92" s="9"/>
+      <c r="C92" s="1"/>
+      <c r="F92" s="8"/>
+    </row>
+    <row r="93" spans="2:6">
+      <c r="B93" s="9"/>
+      <c r="C93" s="1"/>
+      <c r="F93" s="8"/>
+    </row>
+    <row r="94" spans="2:6">
+      <c r="B94" s="9"/>
+      <c r="C94" s="1"/>
+      <c r="F94" s="8"/>
+    </row>
+    <row r="95" spans="2:6">
+      <c r="B95" s="9"/>
+      <c r="C95" s="1"/>
+      <c r="F95" s="8"/>
+    </row>
+    <row r="96" spans="2:6">
+      <c r="B96" s="9"/>
+      <c r="C96" s="1"/>
+      <c r="F96" s="8"/>
+    </row>
+    <row r="97" spans="2:6">
+      <c r="B97" s="9"/>
+      <c r="C97" s="1"/>
+      <c r="F97" s="8"/>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="B98" s="9"/>
+      <c r="C98" s="1"/>
+      <c r="F98" s="8"/>
+    </row>
+    <row r="99" spans="2:6">
+      <c r="B99" s="9"/>
+      <c r="C99" s="1"/>
+      <c r="F99" s="8"/>
+    </row>
+    <row r="100" spans="2:6">
+      <c r="B100" s="9"/>
+      <c r="C100" s="1"/>
+      <c r="F100" s="8"/>
+    </row>
+    <row r="101" spans="2:6">
+      <c r="B101" s="9"/>
+      <c r="C101" s="1"/>
+      <c r="F101" s="8"/>
+    </row>
+    <row r="102" spans="2:6">
+      <c r="B102" s="9"/>
+      <c r="C102" s="1"/>
+      <c r="F102" s="8"/>
+    </row>
+    <row r="103" spans="2:6">
+      <c r="B103" s="9"/>
+      <c r="C103" s="1"/>
+      <c r="F103" s="8"/>
+    </row>
+    <row r="104" spans="2:6">
+      <c r="B104" s="9"/>
+      <c r="C104" s="1"/>
+      <c r="F104" s="8"/>
+    </row>
+    <row r="105" spans="2:6">
+      <c r="B105" s="9"/>
+      <c r="C105" s="1"/>
+      <c r="F105" s="8"/>
+    </row>
+    <row r="106" spans="2:6">
+      <c r="B106" s="9"/>
+      <c r="C106" s="1"/>
+      <c r="F106" s="8"/>
+    </row>
+    <row r="107" spans="2:6">
+      <c r="B107" s="9"/>
+      <c r="C107" s="1"/>
+      <c r="F107" s="8"/>
+    </row>
+    <row r="108" spans="2:6">
+      <c r="B108" s="9"/>
+      <c r="C108" s="1"/>
+      <c r="F108" s="8"/>
+    </row>
+    <row r="109" spans="2:6">
+      <c r="B109" s="9"/>
+      <c r="C109" s="1"/>
+      <c r="F109" s="8"/>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="B110" s="9"/>
+      <c r="C110" s="1"/>
+      <c r="F110" s="8"/>
+    </row>
+    <row r="111" spans="2:6">
+      <c r="B111" s="9"/>
+      <c r="C111" s="1"/>
+      <c r="F111" s="8"/>
+    </row>
+    <row r="112" spans="2:6">
+      <c r="B112" s="9"/>
+      <c r="C112" s="1"/>
+      <c r="F112" s="8"/>
+    </row>
+    <row r="113" spans="2:6">
+      <c r="B113" s="9"/>
+      <c r="C113" s="1"/>
+      <c r="F113" s="8"/>
+    </row>
+    <row r="114" spans="2:6">
+      <c r="B114" s="9"/>
+      <c r="C114" s="1"/>
+      <c r="F114" s="8"/>
+    </row>
+    <row r="115" spans="2:6">
+      <c r="B115" s="9"/>
+      <c r="C115" s="1"/>
+      <c r="F115" s="8"/>
+    </row>
+    <row r="116" spans="2:6">
+      <c r="B116" s="9"/>
+      <c r="C116" s="1"/>
+      <c r="F116" s="8"/>
+    </row>
+    <row r="117" spans="2:6">
+      <c r="B117" s="9"/>
+      <c r="C117" s="1"/>
+      <c r="F117" s="8"/>
+    </row>
+    <row r="118" spans="2:6">
+      <c r="B118" s="9"/>
+      <c r="C118" s="1"/>
+      <c r="F118" s="8"/>
+    </row>
+    <row r="119" spans="2:6">
+      <c r="B119" s="9"/>
+      <c r="C119" s="1"/>
+      <c r="F119" s="8"/>
+    </row>
+    <row r="120" spans="2:6">
+      <c r="B120" s="9"/>
+      <c r="C120" s="1"/>
+      <c r="F120" s="8"/>
+    </row>
+    <row r="121" spans="2:6">
+      <c r="B121" s="9"/>
+      <c r="C121" s="1"/>
+      <c r="F121" s="8"/>
+    </row>
+    <row r="122" spans="2:6">
+      <c r="B122" s="9"/>
+      <c r="C122" s="1"/>
+      <c r="F122" s="8"/>
+    </row>
+    <row r="123" spans="2:6">
+      <c r="B123" s="9"/>
+      <c r="C123" s="1"/>
+      <c r="F123" s="8"/>
+    </row>
+    <row r="124" spans="2:6">
+      <c r="B124" s="9"/>
+      <c r="C124" s="1"/>
+      <c r="F124" s="8"/>
+    </row>
+    <row r="125" spans="2:6">
+      <c r="B125" s="9"/>
+      <c r="C125" s="1"/>
+      <c r="F125" s="8"/>
+    </row>
+    <row r="126" spans="2:6">
+      <c r="B126" s="9"/>
+      <c r="C126" s="1"/>
+      <c r="F126" s="8"/>
+    </row>
+    <row r="127" spans="2:6">
+      <c r="B127" s="9"/>
+      <c r="C127" s="1"/>
+      <c r="F127" s="8"/>
+    </row>
+    <row r="128" spans="2:6">
+      <c r="B128" s="9"/>
+      <c r="C128" s="1"/>
+      <c r="F128" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/Excel/Game/Datas/Entity.xlsx
+++ b/Design/Excel/Game/Datas/Entity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
   <si>
     <t>##var</t>
   </si>
@@ -55,7 +55,7 @@
     <t>实体编号</t>
   </si>
   <si>
-    <t>代码名（程序填）</t>
+    <t>实体编号代码名（程序填）</t>
   </si>
   <si>
     <t>策划备注</t>
@@ -73,10 +73,97 @@
     <t>PlayerShip</t>
   </si>
   <si>
-    <t>飞船</t>
+    <t>玩家战机</t>
   </si>
   <si>
     <t>Aircraft</t>
+  </si>
+  <si>
+    <t>EnemyShip</t>
+  </si>
+  <si>
+    <t>敌人战机</t>
+  </si>
+  <si>
+    <t>PlayerEngine</t>
+  </si>
+  <si>
+    <t>玩家推进器</t>
+  </si>
+  <si>
+    <t>EnemyEngine</t>
+  </si>
+  <si>
+    <t>敌人推进器</t>
+  </si>
+  <si>
+    <t>DefaultWeapon</t>
+  </si>
+  <si>
+    <t>默认武器</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>DefaultArmor</t>
+  </si>
+  <si>
+    <t>默认装甲</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>PlayerBolt</t>
+  </si>
+  <si>
+    <t>玩家子弹</t>
+  </si>
+  <si>
+    <t>Bullet</t>
+  </si>
+  <si>
+    <t>EnemyBolt</t>
+  </si>
+  <si>
+    <t>敌人子弹</t>
+  </si>
+  <si>
+    <t>Asteroid01</t>
+  </si>
+  <si>
+    <t>小行星</t>
+  </si>
+  <si>
+    <t>Asteroid</t>
+  </si>
+  <si>
+    <t>Asteroid02</t>
+  </si>
+  <si>
+    <t>Asteroid03</t>
+  </si>
+  <si>
+    <t>PlayerExplosion</t>
+  </si>
+  <si>
+    <t>玩家死亡特效</t>
+  </si>
+  <si>
+    <t>Effect</t>
+  </si>
+  <si>
+    <t>EnemyExplosion</t>
+  </si>
+  <si>
+    <t>敌人死亡特效</t>
+  </si>
+  <si>
+    <t>AsteroidExplosion</t>
+  </si>
+  <si>
+    <t>小行星死亡特效</t>
   </si>
 </sst>
 </file>
@@ -696,30 +783,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1069,755 +1145,786 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I128"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="3" width="20.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5" customWidth="1"/>
-    <col min="5" max="5" width="29.7583333333333" customWidth="1"/>
-    <col min="6" max="6" width="20.75" customWidth="1"/>
-    <col min="7" max="7" width="23.125" customWidth="1"/>
-    <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="21.375" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.7583333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" customFormat="1" spans="1:8">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" customFormat="1" spans="1:8">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" customFormat="1" spans="1:8">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" customFormat="1" spans="1:8">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" customFormat="1" spans="1:8">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="2"/>
+      <c r="G4" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="2:7">
+      <c r="B5" s="3">
+        <v>10001</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="2:7">
+      <c r="B6" s="3">
+        <v>20000</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="2:7">
+      <c r="B7" s="3">
+        <v>20001</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="2:7">
+      <c r="B8" s="3">
+        <v>30000</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="2:7">
+      <c r="B9" s="3">
+        <v>40000</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="3">
+        <v>50000</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="3">
+        <v>50001</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="3">
+        <v>60000</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="3">
+        <v>60001</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="3">
+        <v>60002</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="3">
+        <v>70000</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="3">
+        <v>70001</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="3">
+        <v>70002</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" s="2"/>
-      <c r="C19" s="1"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" s="6"/>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="7"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="4:6">
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="41" spans="6:6">
-      <c r="F41" s="8"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="4:6">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="5:5">
+      <c r="E41" s="2"/>
     </row>
     <row r="42" spans="5:5">
-      <c r="E42" s="8"/>
+      <c r="E42" s="2"/>
     </row>
     <row r="43" spans="5:5">
-      <c r="E43" s="8"/>
-    </row>
-    <row r="44" spans="5:5">
-      <c r="E44" s="8"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" s="2"/>
     </row>
     <row r="45" spans="6:6">
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" spans="6:6">
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="6:8">
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="6:8">
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="5:8">
+      <c r="E47" s="2"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
     </row>
     <row r="48" spans="5:8">
-      <c r="E48" s="8"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
     </row>
     <row r="49" spans="5:8">
-      <c r="E49" s="8"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="5:8">
-      <c r="E50" s="8"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-    </row>
-    <row r="53" spans="6:8">
-      <c r="F53" s="8"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="52" spans="6:8">
+      <c r="F52" s="2"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="54" spans="6:8">
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
     </row>
     <row r="55" spans="6:8">
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
     </row>
     <row r="56" spans="6:8">
-      <c r="F56" s="8"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
     </row>
     <row r="57" spans="6:8">
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
     </row>
     <row r="58" spans="6:8">
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
     </row>
     <row r="59" spans="6:8">
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
     </row>
     <row r="60" spans="6:8">
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-    </row>
-    <row r="61" spans="6:8">
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="5:8">
+      <c r="E61" s="2"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
     </row>
     <row r="62" spans="5:8">
-      <c r="E62" s="8"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
     </row>
     <row r="63" spans="5:8">
-      <c r="E63" s="8"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
     </row>
     <row r="64" spans="5:8">
-      <c r="E64" s="8"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
     </row>
     <row r="65" spans="5:8">
-      <c r="E65" s="8"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
     </row>
     <row r="66" spans="5:8">
-      <c r="E66" s="8"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
     </row>
     <row r="67" spans="5:8">
-      <c r="E67" s="8"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
     </row>
     <row r="68" spans="5:8">
-      <c r="E68" s="8"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
     </row>
     <row r="69" spans="5:8">
-      <c r="E69" s="8"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
     </row>
     <row r="70" spans="5:8">
-      <c r="E70" s="8"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
     </row>
     <row r="71" spans="5:8">
-      <c r="E71" s="8"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
     </row>
     <row r="72" spans="5:8">
-      <c r="E72" s="8"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
     </row>
     <row r="73" spans="5:8">
-      <c r="E73" s="8"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-    </row>
-    <row r="74" spans="5:8">
-      <c r="E74" s="8"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" s="3"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
     </row>
     <row r="75" spans="2:6">
-      <c r="B75" s="9"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
+      <c r="B75" s="3"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
     </row>
     <row r="76" spans="2:6">
-      <c r="B76" s="9"/>
-      <c r="C76" s="1"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
+      <c r="B76" s="3"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="9"/>
-      <c r="C77" s="1"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
+      <c r="B77" s="3"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
     </row>
     <row r="78" spans="2:6">
-      <c r="B78" s="9"/>
-      <c r="C78" s="1"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
+      <c r="B78" s="3"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
     </row>
     <row r="79" spans="2:6">
-      <c r="B79" s="9"/>
-      <c r="C79" s="1"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="9"/>
-      <c r="C80" s="6"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
+      <c r="B80" s="3"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="9"/>
-      <c r="C81" s="1"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
+      <c r="B81" s="3"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="9"/>
-      <c r="C82" s="1"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
+      <c r="B82" s="3"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="9"/>
-      <c r="C83" s="1"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
+      <c r="B83" s="3"/>
+      <c r="F83" s="2"/>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="9"/>
-      <c r="C84" s="1"/>
-      <c r="F84" s="8"/>
+      <c r="B84" s="3"/>
+      <c r="F84" s="2"/>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="9"/>
-      <c r="C85" s="1"/>
-      <c r="F85" s="8"/>
+      <c r="B85" s="3"/>
+      <c r="F85" s="2"/>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="9"/>
-      <c r="C86" s="1"/>
-      <c r="F86" s="8"/>
+      <c r="B86" s="3"/>
+      <c r="F86" s="2"/>
     </row>
     <row r="87" spans="2:6">
-      <c r="B87" s="9"/>
-      <c r="C87" s="1"/>
-      <c r="F87" s="8"/>
+      <c r="B87" s="3"/>
+      <c r="F87" s="2"/>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" s="9"/>
-      <c r="C88" s="1"/>
-      <c r="F88" s="8"/>
+      <c r="B88" s="3"/>
+      <c r="F88" s="2"/>
     </row>
     <row r="89" spans="2:6">
-      <c r="B89" s="9"/>
-      <c r="C89" s="1"/>
-      <c r="F89" s="8"/>
+      <c r="B89" s="3"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" s="9"/>
-      <c r="C90" s="1"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
+      <c r="B90" s="3"/>
+      <c r="F90" s="2"/>
     </row>
     <row r="91" spans="2:6">
-      <c r="B91" s="9"/>
-      <c r="C91" s="1"/>
-      <c r="F91" s="8"/>
+      <c r="B91" s="3"/>
+      <c r="F91" s="2"/>
     </row>
     <row r="92" spans="2:6">
-      <c r="B92" s="9"/>
-      <c r="C92" s="1"/>
-      <c r="F92" s="8"/>
+      <c r="B92" s="3"/>
+      <c r="F92" s="2"/>
     </row>
     <row r="93" spans="2:6">
-      <c r="B93" s="9"/>
-      <c r="C93" s="1"/>
-      <c r="F93" s="8"/>
+      <c r="B93" s="3"/>
+      <c r="F93" s="2"/>
     </row>
     <row r="94" spans="2:6">
-      <c r="B94" s="9"/>
-      <c r="C94" s="1"/>
-      <c r="F94" s="8"/>
+      <c r="B94" s="3"/>
+      <c r="F94" s="2"/>
     </row>
     <row r="95" spans="2:6">
-      <c r="B95" s="9"/>
-      <c r="C95" s="1"/>
-      <c r="F95" s="8"/>
+      <c r="B95" s="3"/>
+      <c r="F95" s="2"/>
     </row>
     <row r="96" spans="2:6">
-      <c r="B96" s="9"/>
-      <c r="C96" s="1"/>
-      <c r="F96" s="8"/>
+      <c r="B96" s="3"/>
+      <c r="F96" s="2"/>
     </row>
     <row r="97" spans="2:6">
-      <c r="B97" s="9"/>
-      <c r="C97" s="1"/>
-      <c r="F97" s="8"/>
+      <c r="B97" s="3"/>
+      <c r="F97" s="2"/>
     </row>
     <row r="98" spans="2:6">
-      <c r="B98" s="9"/>
-      <c r="C98" s="1"/>
-      <c r="F98" s="8"/>
+      <c r="B98" s="3"/>
+      <c r="F98" s="2"/>
     </row>
     <row r="99" spans="2:6">
-      <c r="B99" s="9"/>
-      <c r="C99" s="1"/>
-      <c r="F99" s="8"/>
+      <c r="B99" s="3"/>
+      <c r="F99" s="2"/>
     </row>
     <row r="100" spans="2:6">
-      <c r="B100" s="9"/>
-      <c r="C100" s="1"/>
-      <c r="F100" s="8"/>
+      <c r="B100" s="3"/>
+      <c r="F100" s="2"/>
     </row>
     <row r="101" spans="2:6">
-      <c r="B101" s="9"/>
-      <c r="C101" s="1"/>
-      <c r="F101" s="8"/>
+      <c r="B101" s="3"/>
+      <c r="F101" s="2"/>
     </row>
     <row r="102" spans="2:6">
-      <c r="B102" s="9"/>
-      <c r="C102" s="1"/>
-      <c r="F102" s="8"/>
+      <c r="B102" s="3"/>
+      <c r="F102" s="2"/>
     </row>
     <row r="103" spans="2:6">
-      <c r="B103" s="9"/>
-      <c r="C103" s="1"/>
-      <c r="F103" s="8"/>
+      <c r="B103" s="3"/>
+      <c r="F103" s="2"/>
     </row>
     <row r="104" spans="2:6">
-      <c r="B104" s="9"/>
-      <c r="C104" s="1"/>
-      <c r="F104" s="8"/>
+      <c r="B104" s="3"/>
+      <c r="F104" s="2"/>
     </row>
     <row r="105" spans="2:6">
-      <c r="B105" s="9"/>
-      <c r="C105" s="1"/>
-      <c r="F105" s="8"/>
+      <c r="B105" s="3"/>
+      <c r="F105" s="2"/>
     </row>
     <row r="106" spans="2:6">
-      <c r="B106" s="9"/>
-      <c r="C106" s="1"/>
-      <c r="F106" s="8"/>
+      <c r="B106" s="3"/>
+      <c r="F106" s="2"/>
     </row>
     <row r="107" spans="2:6">
-      <c r="B107" s="9"/>
-      <c r="C107" s="1"/>
-      <c r="F107" s="8"/>
+      <c r="B107" s="3"/>
+      <c r="F107" s="2"/>
     </row>
     <row r="108" spans="2:6">
-      <c r="B108" s="9"/>
-      <c r="C108" s="1"/>
-      <c r="F108" s="8"/>
+      <c r="B108" s="3"/>
+      <c r="F108" s="2"/>
     </row>
     <row r="109" spans="2:6">
-      <c r="B109" s="9"/>
-      <c r="C109" s="1"/>
-      <c r="F109" s="8"/>
+      <c r="B109" s="3"/>
+      <c r="F109" s="2"/>
     </row>
     <row r="110" spans="2:6">
-      <c r="B110" s="9"/>
-      <c r="C110" s="1"/>
-      <c r="F110" s="8"/>
+      <c r="B110" s="3"/>
+      <c r="F110" s="2"/>
     </row>
     <row r="111" spans="2:6">
-      <c r="B111" s="9"/>
-      <c r="C111" s="1"/>
-      <c r="F111" s="8"/>
+      <c r="B111" s="3"/>
+      <c r="F111" s="2"/>
     </row>
     <row r="112" spans="2:6">
-      <c r="B112" s="9"/>
-      <c r="C112" s="1"/>
-      <c r="F112" s="8"/>
+      <c r="B112" s="3"/>
+      <c r="F112" s="2"/>
     </row>
     <row r="113" spans="2:6">
-      <c r="B113" s="9"/>
-      <c r="C113" s="1"/>
-      <c r="F113" s="8"/>
+      <c r="B113" s="3"/>
+      <c r="F113" s="2"/>
     </row>
     <row r="114" spans="2:6">
-      <c r="B114" s="9"/>
-      <c r="C114" s="1"/>
-      <c r="F114" s="8"/>
+      <c r="B114" s="3"/>
+      <c r="F114" s="2"/>
     </row>
     <row r="115" spans="2:6">
-      <c r="B115" s="9"/>
-      <c r="C115" s="1"/>
-      <c r="F115" s="8"/>
+      <c r="B115" s="3"/>
+      <c r="F115" s="2"/>
     </row>
     <row r="116" spans="2:6">
-      <c r="B116" s="9"/>
-      <c r="C116" s="1"/>
-      <c r="F116" s="8"/>
+      <c r="B116" s="3"/>
+      <c r="F116" s="2"/>
     </row>
     <row r="117" spans="2:6">
-      <c r="B117" s="9"/>
-      <c r="C117" s="1"/>
-      <c r="F117" s="8"/>
+      <c r="B117" s="3"/>
+      <c r="F117" s="2"/>
     </row>
     <row r="118" spans="2:6">
-      <c r="B118" s="9"/>
-      <c r="C118" s="1"/>
-      <c r="F118" s="8"/>
+      <c r="B118" s="3"/>
+      <c r="F118" s="2"/>
     </row>
     <row r="119" spans="2:6">
-      <c r="B119" s="9"/>
-      <c r="C119" s="1"/>
-      <c r="F119" s="8"/>
+      <c r="B119" s="3"/>
+      <c r="F119" s="2"/>
     </row>
     <row r="120" spans="2:6">
-      <c r="B120" s="9"/>
-      <c r="C120" s="1"/>
-      <c r="F120" s="8"/>
+      <c r="B120" s="3"/>
+      <c r="F120" s="2"/>
     </row>
     <row r="121" spans="2:6">
-      <c r="B121" s="9"/>
-      <c r="C121" s="1"/>
-      <c r="F121" s="8"/>
+      <c r="B121" s="3"/>
+      <c r="F121" s="2"/>
     </row>
     <row r="122" spans="2:6">
-      <c r="B122" s="9"/>
-      <c r="C122" s="1"/>
-      <c r="F122" s="8"/>
+      <c r="B122" s="3"/>
+      <c r="F122" s="2"/>
     </row>
     <row r="123" spans="2:6">
-      <c r="B123" s="9"/>
-      <c r="C123" s="1"/>
-      <c r="F123" s="8"/>
+      <c r="B123" s="3"/>
+      <c r="F123" s="2"/>
     </row>
     <row r="124" spans="2:6">
-      <c r="B124" s="9"/>
-      <c r="C124" s="1"/>
-      <c r="F124" s="8"/>
+      <c r="B124" s="3"/>
+      <c r="F124" s="2"/>
     </row>
     <row r="125" spans="2:6">
-      <c r="B125" s="9"/>
-      <c r="C125" s="1"/>
-      <c r="F125" s="8"/>
+      <c r="B125" s="3"/>
+      <c r="F125" s="2"/>
     </row>
     <row r="126" spans="2:6">
-      <c r="B126" s="9"/>
-      <c r="C126" s="1"/>
-      <c r="F126" s="8"/>
+      <c r="B126" s="3"/>
+      <c r="F126" s="2"/>
     </row>
     <row r="127" spans="2:6">
-      <c r="B127" s="9"/>
-      <c r="C127" s="1"/>
-      <c r="F127" s="8"/>
-    </row>
-    <row r="128" spans="2:6">
-      <c r="B128" s="9"/>
-      <c r="C128" s="1"/>
-      <c r="F128" s="8"/>
+      <c r="B127" s="3"/>
+      <c r="F127" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/Excel/Game/Datas/Entity.xlsx
+++ b/Design/Excel/Game/Datas/Entity.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -169,14 +182,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,61 +198,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,6 +255,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -329,7 +315,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,49 +351,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,121 +489,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,21 +542,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -582,6 +574,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,152 +645,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -794,58 +801,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1145,13 +1149,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="A4" sqref="A4:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1"/>
     <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
@@ -1160,12 +1164,10 @@
     <col min="5" max="5" width="29.7583333333333" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.875" style="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1187,8 +1189,6 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
@@ -1515,416 +1515,6 @@
       <c r="G17" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="25" spans="3:3">
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" s="2"/>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="4:6">
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="40" spans="6:6">
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="5:5">
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="5:5">
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="5:5">
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="6:6">
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="6:6">
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="6:8">
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="5:8">
-      <c r="E47" s="2"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="5:8">
-      <c r="E48" s="2"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="5:8">
-      <c r="E49" s="2"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="52" spans="6:8">
-      <c r="F52" s="2"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-    </row>
-    <row r="54" spans="6:8">
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="6:8">
-      <c r="F55" s="2"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="6:8">
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="6:8">
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="6:8">
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="6:8">
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-    </row>
-    <row r="60" spans="6:8">
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-    </row>
-    <row r="61" spans="5:8">
-      <c r="E61" s="2"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-    </row>
-    <row r="62" spans="5:8">
-      <c r="E62" s="2"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="5:8">
-      <c r="E63" s="2"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-    </row>
-    <row r="64" spans="5:8">
-      <c r="E64" s="2"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-    </row>
-    <row r="65" spans="5:8">
-      <c r="E65" s="2"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-    </row>
-    <row r="66" spans="5:8">
-      <c r="E66" s="2"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-    </row>
-    <row r="67" spans="5:8">
-      <c r="E67" s="2"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="5:8">
-      <c r="E68" s="2"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-    </row>
-    <row r="69" spans="5:8">
-      <c r="E69" s="2"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-    </row>
-    <row r="70" spans="5:8">
-      <c r="E70" s="2"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="5:8">
-      <c r="E71" s="2"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-    </row>
-    <row r="72" spans="5:8">
-      <c r="E72" s="2"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-    </row>
-    <row r="73" spans="5:8">
-      <c r="E73" s="2"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-    </row>
-    <row r="74" spans="2:6">
-      <c r="B74" s="3"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-    </row>
-    <row r="75" spans="2:6">
-      <c r="B75" s="3"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-    </row>
-    <row r="76" spans="2:6">
-      <c r="B76" s="3"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-    </row>
-    <row r="77" spans="2:6">
-      <c r="B77" s="3"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-    </row>
-    <row r="78" spans="2:6">
-      <c r="B78" s="3"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-    </row>
-    <row r="79" spans="2:6">
-      <c r="B79" s="3"/>
-      <c r="C79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-    </row>
-    <row r="80" spans="2:6">
-      <c r="B80" s="3"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-    </row>
-    <row r="81" spans="2:6">
-      <c r="B81" s="3"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-    </row>
-    <row r="82" spans="2:6">
-      <c r="B82" s="3"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-    </row>
-    <row r="83" spans="2:6">
-      <c r="B83" s="3"/>
-      <c r="F83" s="2"/>
-    </row>
-    <row r="84" spans="2:6">
-      <c r="B84" s="3"/>
-      <c r="F84" s="2"/>
-    </row>
-    <row r="85" spans="2:6">
-      <c r="B85" s="3"/>
-      <c r="F85" s="2"/>
-    </row>
-    <row r="86" spans="2:6">
-      <c r="B86" s="3"/>
-      <c r="F86" s="2"/>
-    </row>
-    <row r="87" spans="2:6">
-      <c r="B87" s="3"/>
-      <c r="F87" s="2"/>
-    </row>
-    <row r="88" spans="2:6">
-      <c r="B88" s="3"/>
-      <c r="F88" s="2"/>
-    </row>
-    <row r="89" spans="2:6">
-      <c r="B89" s="3"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-    </row>
-    <row r="90" spans="2:6">
-      <c r="B90" s="3"/>
-      <c r="F90" s="2"/>
-    </row>
-    <row r="91" spans="2:6">
-      <c r="B91" s="3"/>
-      <c r="F91" s="2"/>
-    </row>
-    <row r="92" spans="2:6">
-      <c r="B92" s="3"/>
-      <c r="F92" s="2"/>
-    </row>
-    <row r="93" spans="2:6">
-      <c r="B93" s="3"/>
-      <c r="F93" s="2"/>
-    </row>
-    <row r="94" spans="2:6">
-      <c r="B94" s="3"/>
-      <c r="F94" s="2"/>
-    </row>
-    <row r="95" spans="2:6">
-      <c r="B95" s="3"/>
-      <c r="F95" s="2"/>
-    </row>
-    <row r="96" spans="2:6">
-      <c r="B96" s="3"/>
-      <c r="F96" s="2"/>
-    </row>
-    <row r="97" spans="2:6">
-      <c r="B97" s="3"/>
-      <c r="F97" s="2"/>
-    </row>
-    <row r="98" spans="2:6">
-      <c r="B98" s="3"/>
-      <c r="F98" s="2"/>
-    </row>
-    <row r="99" spans="2:6">
-      <c r="B99" s="3"/>
-      <c r="F99" s="2"/>
-    </row>
-    <row r="100" spans="2:6">
-      <c r="B100" s="3"/>
-      <c r="F100" s="2"/>
-    </row>
-    <row r="101" spans="2:6">
-      <c r="B101" s="3"/>
-      <c r="F101" s="2"/>
-    </row>
-    <row r="102" spans="2:6">
-      <c r="B102" s="3"/>
-      <c r="F102" s="2"/>
-    </row>
-    <row r="103" spans="2:6">
-      <c r="B103" s="3"/>
-      <c r="F103" s="2"/>
-    </row>
-    <row r="104" spans="2:6">
-      <c r="B104" s="3"/>
-      <c r="F104" s="2"/>
-    </row>
-    <row r="105" spans="2:6">
-      <c r="B105" s="3"/>
-      <c r="F105" s="2"/>
-    </row>
-    <row r="106" spans="2:6">
-      <c r="B106" s="3"/>
-      <c r="F106" s="2"/>
-    </row>
-    <row r="107" spans="2:6">
-      <c r="B107" s="3"/>
-      <c r="F107" s="2"/>
-    </row>
-    <row r="108" spans="2:6">
-      <c r="B108" s="3"/>
-      <c r="F108" s="2"/>
-    </row>
-    <row r="109" spans="2:6">
-      <c r="B109" s="3"/>
-      <c r="F109" s="2"/>
-    </row>
-    <row r="110" spans="2:6">
-      <c r="B110" s="3"/>
-      <c r="F110" s="2"/>
-    </row>
-    <row r="111" spans="2:6">
-      <c r="B111" s="3"/>
-      <c r="F111" s="2"/>
-    </row>
-    <row r="112" spans="2:6">
-      <c r="B112" s="3"/>
-      <c r="F112" s="2"/>
-    </row>
-    <row r="113" spans="2:6">
-      <c r="B113" s="3"/>
-      <c r="F113" s="2"/>
-    </row>
-    <row r="114" spans="2:6">
-      <c r="B114" s="3"/>
-      <c r="F114" s="2"/>
-    </row>
-    <row r="115" spans="2:6">
-      <c r="B115" s="3"/>
-      <c r="F115" s="2"/>
-    </row>
-    <row r="116" spans="2:6">
-      <c r="B116" s="3"/>
-      <c r="F116" s="2"/>
-    </row>
-    <row r="117" spans="2:6">
-      <c r="B117" s="3"/>
-      <c r="F117" s="2"/>
-    </row>
-    <row r="118" spans="2:6">
-      <c r="B118" s="3"/>
-      <c r="F118" s="2"/>
-    </row>
-    <row r="119" spans="2:6">
-      <c r="B119" s="3"/>
-      <c r="F119" s="2"/>
-    </row>
-    <row r="120" spans="2:6">
-      <c r="B120" s="3"/>
-      <c r="F120" s="2"/>
-    </row>
-    <row r="121" spans="2:6">
-      <c r="B121" s="3"/>
-      <c r="F121" s="2"/>
-    </row>
-    <row r="122" spans="2:6">
-      <c r="B122" s="3"/>
-      <c r="F122" s="2"/>
-    </row>
-    <row r="123" spans="2:6">
-      <c r="B123" s="3"/>
-      <c r="F123" s="2"/>
-    </row>
-    <row r="124" spans="2:6">
-      <c r="B124" s="3"/>
-      <c r="F124" s="2"/>
-    </row>
-    <row r="125" spans="2:6">
-      <c r="B125" s="3"/>
-      <c r="F125" s="2"/>
-    </row>
-    <row r="126" spans="2:6">
-      <c r="B126" s="3"/>
-      <c r="F126" s="2"/>
-    </row>
-    <row r="127" spans="2:6">
-      <c r="B127" s="3"/>
-      <c r="F127" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
